--- a/Results/ml_parameters.xlsx
+++ b/Results/ml_parameters.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annarienbester/git/gravitationallenses/Results /"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annarienbester/git/gravitationallenses/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46FD6D3-8699-FE40-B0E2-84E5FB64EA88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA406033-1ED1-CE47-9D76-5B2FB9B2F213}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35300" yWindow="2360" windowWidth="28800" windowHeight="17540" xr2:uid="{EE8A5D69-8514-D648-BD1F-175D6DB078D3}"/>
+    <workbookView xWindow="-51200" yWindow="0" windowWidth="51200" windowHeight="21600" xr2:uid="{EE8A5D69-8514-D648-BD1F-175D6DB078D3}"/>
   </bookViews>
   <sheets>
     <sheet name="ml_lenses results" sheetId="1" r:id="rId1"/>
@@ -1389,6 +1389,48 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1404,48 +1446,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1455,19 +1455,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1793,8 +1793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A06CD785-33B7-3045-A313-C2EB4D15E3B6}">
   <dimension ref="A1:AR86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y5" workbookViewId="0">
-      <selection activeCell="AJ15" sqref="AJ15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AQ15" sqref="AQ15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -1847,7 +1847,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="111" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="37" t="s">
@@ -1895,7 +1895,7 @@
       <c r="AR1" s="91"/>
     </row>
     <row r="2" spans="1:44" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="98"/>
+      <c r="A2" s="112"/>
       <c r="B2" s="39" t="s">
         <v>3</v>
       </c>
@@ -1941,7 +1941,7 @@
       <c r="AR2" s="91"/>
     </row>
     <row r="3" spans="1:44" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="111" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="37" t="s">
@@ -1995,7 +1995,7 @@
       <c r="AR3" s="91"/>
     </row>
     <row r="4" spans="1:44" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="99"/>
+      <c r="A4" s="113"/>
       <c r="B4" s="41" t="s">
         <v>11</v>
       </c>
@@ -2008,14 +2008,14 @@
       <c r="G4" s="2"/>
       <c r="J4" s="2"/>
       <c r="M4" s="2"/>
-      <c r="N4" s="101" t="s">
+      <c r="N4" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="O4" s="101"/>
-      <c r="P4" s="101"/>
-      <c r="Q4" s="101"/>
-      <c r="R4" s="101"/>
-      <c r="S4" s="101"/>
+      <c r="O4" s="115"/>
+      <c r="P4" s="115"/>
+      <c r="Q4" s="115"/>
+      <c r="R4" s="115"/>
+      <c r="S4" s="115"/>
       <c r="T4" s="49"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
@@ -2043,7 +2043,7 @@
       <c r="AR4" s="91"/>
     </row>
     <row r="5" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="100"/>
+      <c r="A5" s="114"/>
       <c r="B5" s="39" t="s">
         <v>14</v>
       </c>
@@ -2056,10 +2056,10 @@
       <c r="G5" s="2"/>
       <c r="J5" s="2"/>
       <c r="M5" s="2"/>
-      <c r="N5" s="101" t="s">
+      <c r="N5" s="115" t="s">
         <v>66</v>
       </c>
-      <c r="O5" s="101"/>
+      <c r="O5" s="115"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
@@ -2141,21 +2141,21 @@
       <c r="C7" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="112" t="s">
+      <c r="D7" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="113"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="102" t="s">
+      <c r="E7" s="108"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="115" t="s">
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="110" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="103"/>
-      <c r="L7" s="111"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="106"/>
       <c r="M7" s="50" t="s">
         <v>36</v>
       </c>
@@ -2180,27 +2180,27 @@
       <c r="T7" s="89" t="s">
         <v>195</v>
       </c>
-      <c r="U7" s="110" t="s">
+      <c r="U7" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="V7" s="111"/>
-      <c r="W7" s="111"/>
-      <c r="X7" s="105" t="s">
+      <c r="V7" s="106"/>
+      <c r="W7" s="106"/>
+      <c r="X7" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="Y7" s="106"/>
-      <c r="Z7" s="106"/>
+      <c r="Y7" s="101"/>
+      <c r="Z7" s="101"/>
       <c r="AA7" s="28" t="s">
         <v>23</v>
       </c>
       <c r="AB7" s="90" t="s">
         <v>195</v>
       </c>
-      <c r="AC7" s="102" t="s">
+      <c r="AC7" s="97" t="s">
         <v>44</v>
       </c>
-      <c r="AD7" s="103"/>
-      <c r="AE7" s="104"/>
+      <c r="AD7" s="98"/>
+      <c r="AE7" s="99"/>
       <c r="AF7" s="51" t="s">
         <v>63</v>
       </c>
@@ -2212,16 +2212,16 @@
       <c r="AJ7" s="90" t="s">
         <v>195</v>
       </c>
-      <c r="AK7" s="102" t="s">
+      <c r="AK7" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="AL7" s="103"/>
-      <c r="AM7" s="104"/>
-      <c r="AN7" s="102" t="s">
+      <c r="AL7" s="98"/>
+      <c r="AM7" s="99"/>
+      <c r="AN7" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="AO7" s="103"/>
-      <c r="AP7" s="104"/>
+      <c r="AO7" s="98"/>
+      <c r="AP7" s="99"/>
       <c r="AQ7" s="28" t="s">
         <v>23</v>
       </c>
@@ -2230,7 +2230,7 @@
       </c>
     </row>
     <row r="8" spans="1:44" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="107">
+      <c r="A8" s="102">
         <v>1</v>
       </c>
       <c r="B8" s="33" t="s">
@@ -2343,7 +2343,7 @@
       <c r="AQ8" s="31"/>
     </row>
     <row r="9" spans="1:44" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="108"/>
+      <c r="A9" s="103"/>
       <c r="B9" s="33" t="s">
         <v>19</v>
       </c>
@@ -2358,7 +2358,7 @@
       <c r="AI9" s="30"/>
     </row>
     <row r="10" spans="1:44" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="108"/>
+      <c r="A10" s="103"/>
       <c r="B10" s="33" t="s">
         <v>20</v>
       </c>
@@ -2490,7 +2490,7 @@
       </c>
     </row>
     <row r="11" spans="1:44" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="108"/>
+      <c r="A11" s="103"/>
       <c r="B11" s="33" t="s">
         <v>21</v>
       </c>
@@ -2499,7 +2499,7 @@
       </c>
     </row>
     <row r="12" spans="1:44" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="109"/>
+      <c r="A12" s="104"/>
       <c r="B12" s="34" t="s">
         <v>22</v>
       </c>
@@ -4359,6 +4359,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="N4:S4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="AK7:AM7"/>
     <mergeCell ref="AN7:AP7"/>
     <mergeCell ref="X7:Z7"/>
     <mergeCell ref="A8:A12"/>
@@ -4367,11 +4372,6 @@
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:L7"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="N4:S4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="AK7:AM7"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4646,18 +4646,18 @@
       <c r="B1" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="101" t="s">
+      <c r="C1" s="115" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="101"/>
-      <c r="E1" s="121" t="s">
+      <c r="D1" s="115"/>
+      <c r="E1" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121" t="s">
+      <c r="F1" s="119"/>
+      <c r="G1" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="121"/>
+      <c r="H1" s="119"/>
       <c r="I1" s="35"/>
       <c r="L1" s="35"/>
       <c r="O1" s="35"/>
@@ -4666,18 +4666,18 @@
       <c r="B2" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="101" t="s">
+      <c r="C2" s="115" t="s">
         <v>152</v>
       </c>
-      <c r="D2" s="101"/>
-      <c r="E2" s="121" t="s">
+      <c r="D2" s="115"/>
+      <c r="E2" s="119" t="s">
         <v>153</v>
       </c>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121" t="s">
+      <c r="F2" s="119"/>
+      <c r="G2" s="119" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="121"/>
+      <c r="H2" s="119"/>
       <c r="I2" s="35"/>
       <c r="L2" s="35"/>
       <c r="O2" s="35"/>
@@ -4686,18 +4686,18 @@
       <c r="B3" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="101" t="s">
+      <c r="C3" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="101"/>
-      <c r="E3" s="121" t="s">
+      <c r="D3" s="115"/>
+      <c r="E3" s="119" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121" t="s">
+      <c r="F3" s="119"/>
+      <c r="G3" s="119" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="121"/>
+      <c r="H3" s="119"/>
       <c r="I3" s="35"/>
       <c r="L3" s="35"/>
       <c r="O3" s="35"/>
@@ -4706,18 +4706,18 @@
       <c r="B4" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="C4" s="101" t="s">
+      <c r="C4" s="115" t="s">
         <v>154</v>
       </c>
-      <c r="D4" s="101"/>
-      <c r="E4" s="121" t="s">
+      <c r="D4" s="115"/>
+      <c r="E4" s="119" t="s">
         <v>155</v>
       </c>
-      <c r="F4" s="121"/>
-      <c r="G4" s="121" t="s">
+      <c r="F4" s="119"/>
+      <c r="G4" s="119" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="121"/>
+      <c r="H4" s="119"/>
       <c r="I4" s="35"/>
       <c r="L4" s="35"/>
       <c r="O4" s="35"/>
@@ -4726,18 +4726,18 @@
       <c r="B5" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="C5" s="101" t="s">
+      <c r="C5" s="115" t="s">
         <v>113</v>
       </c>
-      <c r="D5" s="101"/>
-      <c r="E5" s="121" t="s">
+      <c r="D5" s="115"/>
+      <c r="E5" s="119" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121" t="s">
+      <c r="F5" s="119"/>
+      <c r="G5" s="119" t="s">
         <v>58</v>
       </c>
-      <c r="H5" s="121"/>
+      <c r="H5" s="119"/>
       <c r="I5" s="35"/>
       <c r="L5" s="35"/>
       <c r="O5" s="35"/>
@@ -4746,18 +4746,18 @@
       <c r="B6" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="C6" s="101" t="s">
+      <c r="C6" s="115" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="101"/>
-      <c r="E6" s="121" t="s">
+      <c r="D6" s="115"/>
+      <c r="E6" s="119" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="121"/>
-      <c r="G6" s="121" t="s">
+      <c r="F6" s="119"/>
+      <c r="G6" s="119" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="121"/>
+      <c r="H6" s="119"/>
       <c r="I6" s="35"/>
       <c r="L6" s="35"/>
       <c r="O6" s="35"/>
@@ -4766,18 +4766,18 @@
       <c r="B7" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="C7" s="101" t="s">
+      <c r="C7" s="115" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="101"/>
-      <c r="E7" s="121" t="s">
+      <c r="D7" s="115"/>
+      <c r="E7" s="119" t="s">
         <v>157</v>
       </c>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121" t="s">
+      <c r="F7" s="119"/>
+      <c r="G7" s="119" t="s">
         <v>172</v>
       </c>
-      <c r="H7" s="121"/>
+      <c r="H7" s="119"/>
       <c r="I7" s="35"/>
       <c r="L7" s="35"/>
       <c r="O7" s="35"/>
@@ -4786,18 +4786,18 @@
       <c r="B8" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="C8" s="101" t="s">
+      <c r="C8" s="115" t="s">
         <v>158</v>
       </c>
-      <c r="D8" s="101"/>
-      <c r="E8" s="121" t="s">
+      <c r="D8" s="115"/>
+      <c r="E8" s="119" t="s">
         <v>159</v>
       </c>
-      <c r="F8" s="121"/>
-      <c r="G8" s="121" t="s">
+      <c r="F8" s="119"/>
+      <c r="G8" s="119" t="s">
         <v>162</v>
       </c>
-      <c r="H8" s="121"/>
+      <c r="H8" s="119"/>
       <c r="I8" s="35"/>
       <c r="L8" s="35"/>
       <c r="O8" s="35"/>
@@ -4812,26 +4812,26 @@
     <row r="10" spans="1:15" s="53" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="52"/>
       <c r="C10" s="66"/>
-      <c r="D10" s="119" t="s">
+      <c r="D10" s="120" t="s">
         <v>166</v>
       </c>
-      <c r="E10" s="119"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="119" t="s">
+      <c r="E10" s="120"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="120" t="s">
         <v>168</v>
       </c>
-      <c r="H10" s="119"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="119" t="s">
+      <c r="H10" s="120"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="120" t="s">
         <v>169</v>
       </c>
-      <c r="K10" s="119"/>
-      <c r="L10" s="120"/>
-      <c r="M10" s="119" t="s">
+      <c r="K10" s="120"/>
+      <c r="L10" s="123"/>
+      <c r="M10" s="120" t="s">
         <v>170</v>
       </c>
-      <c r="N10" s="122"/>
-      <c r="O10" s="123"/>
+      <c r="N10" s="121"/>
+      <c r="O10" s="122"/>
     </row>
     <row r="11" spans="1:15" s="56" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="54" t="s">
@@ -5362,18 +5362,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="E2:F2"/>
@@ -5384,12 +5378,18 @@
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
